--- a/213934599_207302027.xlsx
+++ b/213934599_207302027.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +43,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -104,10 +98,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -136,7 +130,7 @@
   <tableColumns count="1">
     <tableColumn name="Time (seconds)" id="1" totalsRowLabel="Total"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -440,7 +434,7 @@
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -468,7 +462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -482,7 +476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -496,7 +490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -510,7 +504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -524,7 +518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -538,7 +532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -552,7 +546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -566,7 +560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -580,7 +574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -594,7 +588,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -608,7 +602,7 @@
         <v>815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -622,7 +616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -636,7 +630,7 @@
         <v>444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -650,7 +644,7 @@
         <v>362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -664,7 +658,7 @@
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -678,7 +672,7 @@
         <v>47789</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -692,7 +686,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -706,7 +700,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -720,7 +714,7 @@
         <v>8409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
